--- a/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:34:12+00:00</t>
+    <t>2024-05-02T08:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,7 +643,7 @@
 - TRE_A00-ProducteurDocNonPS, OID : 1.2.250.1.213.1.1.4.6 
 - TRE_R209-TypeActivite, OID : 1.2.250.1.213.2.2 
 - TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J59-ContentTypeCode-DMP). 
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {f:extension[designationType]}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>typeActivite : [1..1] Code</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T08:43:49+00:00</t>
+    <t>2024-05-02T08:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T08:44:38+00:00</t>
+    <t>2024-05-02T12:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:17:05+00:00</t>
+    <t>2024-05-02T12:31:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:31:07+00:00</t>
+    <t>2024-05-02T12:37:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:37:40+00:00</t>
+    <t>2024-05-02T12:40:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:40:02+00:00</t>
+    <t>2024-05-02T12:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/nr-update-deps/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T12:53:40+00:00</t>
+    <t>2024-05-02T13:26:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
